--- a/Output/Relatorio-Erros-RO125678.xlsx
+++ b/Output/Relatorio-Erros-RO125678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31048D6E-24BE-4A6C-8A57-185A394375E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE152BE-09F5-4541-B60C-5D4F6882511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{203584F3-C6D6-4132-88B0-7B8647FDAD1A}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-RO125678.xlsx
+++ b/Output/Relatorio-Erros-RO125678.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE152BE-09F5-4541-B60C-5D4F6882511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D2AE7B-1AB3-49D8-BABE-DACAD9D621FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{203584F3-C6D6-4132-88B0-7B8647FDAD1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F8CD612-5897-4FDD-960D-86CDA3951318}"/>
   </bookViews>
   <sheets>
     <sheet name="Erros" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>INVOICE</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Erros Encontrados</t>
-  </si>
-  <si>
-    <t>RO125678</t>
   </si>
 </sst>
 </file>
@@ -419,8 +416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119FC943-77F9-4EA6-B867-7193593389C8}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E796F83E-E306-482B-A72E-575E370B8FB5}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,21 +434,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>362980</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9025B-768B-4664-94D8-580087851970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5527CB38-9758-4421-9B61-803143BC68B2}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Output/Relatorio-Erros-RO125678.xlsx
+++ b/Output/Relatorio-Erros-RO125678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D2AE7B-1AB3-49D8-BABE-DACAD9D621FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8102C-8000-4B38-9D7A-8858C20B50A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F8CD612-5897-4FDD-960D-86CDA3951318}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-RO125678.xlsx
+++ b/Output/Relatorio-Erros-RO125678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8102C-8000-4B38-9D7A-8858C20B50A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8B7D24-416E-442E-95AB-E2642AF0F979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F8CD612-5897-4FDD-960D-86CDA3951318}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-RO125678.xlsx
+++ b/Output/Relatorio-Erros-RO125678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8B7D24-416E-442E-95AB-E2642AF0F979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4068FD9E-85FE-466C-B5BD-AA8735193B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F8CD612-5897-4FDD-960D-86CDA3951318}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-RO125678.xlsx
+++ b/Output/Relatorio-Erros-RO125678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4068FD9E-85FE-466C-B5BD-AA8735193B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6979BBD2-7963-4EA1-93F8-F28A9C499B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F8CD612-5897-4FDD-960D-86CDA3951318}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-RO125678.xlsx
+++ b/Output/Relatorio-Erros-RO125678.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C3FF3F-3AAB-4A84-945F-6FCE750659BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F051A0AD-9C85-496C-8C07-4CDB792D68C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23BCAC74-48E7-4A79-9B6C-DE4B17CEC6B6}"/>
   </bookViews>
